--- a/views/type/product.xlsx
+++ b/views/type/product.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -55,12 +55,6 @@
     <t>additionalnotes</t>
   </si>
   <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>booked</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
   </si>
   <si>
     <t>order</t>
-  </si>
-  <si>
-    <t>suggestedProduct</t>
   </si>
   <si>
     <t>images</t>
@@ -97,6 +88,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -189,16 +181,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -255,15 +247,6 @@
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
